--- a/python_examples/excel_python/Device1_OneSheet.xlsx
+++ b/python_examples/excel_python/Device1_OneSheet.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Global" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -138,8 +138,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -201,7 +205,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/python_examples/excel_python/Device1_OneSheet.xlsx
+++ b/python_examples/excel_python/Device1_OneSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t xml:space="preserve">Device</t>
   </si>
@@ -65,6 +65,42 @@
   </si>
   <si>
     <t xml:space="preserve">rwpublic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hosts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ntp1.sesahs.nsw.gov.au</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.40.0.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ntp3.sesahs.nsw.gov.au</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.44.10.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">host.sesahs.nsw.gov.au</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.45.10.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radius_Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SESI-ISE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
   </si>
 </sst>
 </file>
@@ -79,6 +115,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -164,43 +201,44 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.92"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -208,45 +246,89 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="0" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
